--- a/biology/Biologie cellulaire et moléculaire/Cortex_cellulaire/Cortex_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cortex_cellulaire/Cortex_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cortex cellulaire (cortex en latin signifiant écorce) est une couche spécialisée de cytoplasme sur la face interne de la membrane plasmique et qui sert de support mécanique à celle-ci. Dans les cellules animales le cortex est une couche riche en actine responsable des mouvements de la surface de la cellule[1],[2]. Chez les plantes, le cortex est renforcé par des microtubules corticaux sous la membrane. La direction de ces microtubules détermine dans quelle direction la cellule s'allonge en grandissant.
-Chez certaines cellules animales, des protéines nommées spectrines sont présentes dans le cortex. La spectrine crée un réseau en réticulant entre eux des filaments d'actine[2]. Les proportions de spectrine et d'actine varient selon le type cellulaire[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cortex cellulaire (cortex en latin signifiant écorce) est une couche spécialisée de cytoplasme sur la face interne de la membrane plasmique et qui sert de support mécanique à celle-ci. Dans les cellules animales le cortex est une couche riche en actine responsable des mouvements de la surface de la cellule,. Chez les plantes, le cortex est renforcé par des microtubules corticaux sous la membrane. La direction de ces microtubules détermine dans quelle direction la cellule s'allonge en grandissant.
+Chez certaines cellules animales, des protéines nommées spectrines sont présentes dans le cortex. La spectrine crée un réseau en réticulant entre eux des filaments d'actine. Les proportions de spectrine et d'actine varient selon le type cellulaire.
 </t>
         </is>
       </c>
